--- a/biology/Botanique/Liste_de_plantes_mellifères_en_Europe/Liste_de_plantes_mellifères_en_Europe.xlsx
+++ b/biology/Botanique/Liste_de_plantes_mellifères_en_Europe/Liste_de_plantes_mellifères_en_Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_mellif%C3%A8res_en_Europe</t>
+          <t>Liste_de_plantes_mellifères_en_Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes mellifères sont celles dont les produits sont exploitées par l'apiculture. Le nectar est le principal ingrédient du miel, mais le pollen, le miellat et la propolis sont également employés par les abeilles et les apiculteurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_mellif%C3%A8res_en_Europe</t>
+          <t>Liste_de_plantes_mellifères_en_Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
